--- a/trunk/ smart-buy/Stuff/DungTT/Template.xlsx
+++ b/trunk/ smart-buy/Stuff/DungTT/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="15120" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="15120" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="140">
   <si>
     <t>STT</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Bột mì Bình Đông</t>
   </si>
   <si>
-    <t>Thịt heo đùi</t>
-  </si>
-  <si>
     <t>Thịt heo nạt lưng</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>Nếp Sáp</t>
   </si>
   <si>
-    <t>Thịt heo nạc đùi</t>
-  </si>
-  <si>
     <t>Gà tam hoàng làm sẵn(con 1- 1.5 kg)</t>
   </si>
   <si>
@@ -333,21 +327,6 @@
     <t>Dưa hấu giống TL trái 3 kg</t>
   </si>
   <si>
-    <t>Thịt Vai</t>
-  </si>
-  <si>
-    <t>Thịt nách</t>
-  </si>
-  <si>
-    <t>Thịt cốt lếch</t>
-  </si>
-  <si>
-    <t>sườn già</t>
-  </si>
-  <si>
-    <t>chân giò</t>
-  </si>
-  <si>
     <t>Dầu ăn tổng hợp Nakydaco (chai 1 lít)</t>
   </si>
   <si>
@@ -378,16 +357,85 @@
     <t>10</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>-2</t>
   </si>
   <si>
-    <t>Thóc tẻ thường;thóc tẻ;thóc thường tẻ</t>
-  </si>
-  <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>thóc thường tẻ</t>
+  </si>
+  <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>Thịt heo nạc đùi A</t>
+  </si>
+  <si>
+    <t>Thịt đà điểu</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>Dầu ăn tổng hợp TƯỜNG AN 2</t>
+  </si>
+  <si>
+    <t>Cá chép Long An</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Mật ong</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Dâu đà lạt</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Lẩu cá hồi</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Bánh Snack tôm</t>
+  </si>
+  <si>
+    <t>Cá kèo đồng</t>
+  </si>
+  <si>
+    <t>Mực lá tươi</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Ghẹ Cà Mau</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Cua Cà Mau</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Tôm tích</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
 </sst>
 </file>
@@ -771,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108:C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,13 +860,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,13 +874,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2">
         <v>21</v>
@@ -857,10 +905,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -871,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
@@ -882,13 +930,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="2">
-        <v>78</v>
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,10 +944,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2">
         <v>100</v>
@@ -910,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
         <v>87</v>
@@ -924,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
         <v>35</v>
@@ -938,10 +986,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2">
         <v>230</v>
@@ -952,10 +1000,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2">
         <v>220</v>
@@ -966,10 +1014,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2">
         <v>125</v>
@@ -980,10 +1028,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2">
         <v>13</v>
@@ -994,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2">
         <v>20</v>
@@ -1005,10 +1053,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2">
         <v>28</v>
@@ -1019,10 +1067,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2">
         <v>36</v>
@@ -1033,10 +1081,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2">
         <v>100</v>
@@ -1047,10 +1095,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2">
         <v>150</v>
@@ -1061,10 +1109,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2">
         <v>620</v>
@@ -1075,10 +1123,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2">
         <v>43</v>
@@ -1089,10 +1137,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2">
         <v>26</v>
@@ -1103,10 +1151,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2">
         <v>17</v>
@@ -1117,10 +1165,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2">
         <v>16</v>
@@ -1131,10 +1179,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2">
         <v>4</v>
@@ -1145,10 +1193,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2">
         <v>20</v>
@@ -1159,10 +1207,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2">
         <v>10</v>
@@ -1173,10 +1221,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
@@ -1187,10 +1235,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2">
         <v>50</v>
@@ -1201,10 +1249,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2">
         <v>18</v>
@@ -1215,10 +1263,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2">
         <v>65</v>
@@ -1229,10 +1277,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2">
         <v>19</v>
@@ -1243,10 +1291,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2">
         <v>10</v>
@@ -1257,10 +1305,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2">
         <v>10</v>
@@ -1271,10 +1319,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="2">
         <v>17</v>
@@ -1285,10 +1333,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2">
         <v>58</v>
@@ -1299,10 +1347,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2">
         <v>100</v>
@@ -1313,10 +1361,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2">
         <v>70</v>
@@ -1327,10 +1375,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2">
         <v>165</v>
@@ -1341,10 +1389,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2">
         <v>265</v>
@@ -1355,10 +1403,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="2">
         <v>360</v>
@@ -1369,10 +1417,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="2">
         <v>12</v>
@@ -1383,10 +1431,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2">
         <v>28</v>
@@ -1397,10 +1445,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2">
         <v>30</v>
@@ -1411,13 +1459,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,10 +1473,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2">
         <v>650</v>
@@ -1439,10 +1487,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="2">
         <v>33</v>
@@ -1453,13 +1501,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,10 +1515,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="2">
         <v>6</v>
@@ -1481,10 +1529,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2">
         <v>40</v>
@@ -1495,10 +1543,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="2">
         <v>40</v>
@@ -1509,13 +1557,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,10 +1571,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54" s="2">
         <v>16</v>
@@ -1537,10 +1585,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" s="2">
         <v>200</v>
@@ -1551,10 +1599,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D56" s="2">
         <v>65</v>
@@ -1565,10 +1613,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D57" s="2">
         <v>50</v>
@@ -1579,10 +1627,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58" s="2">
         <v>17</v>
@@ -1593,13 +1641,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" s="2">
-        <v>87</v>
+        <v>46</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,10 +1655,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D60" s="2">
         <v>60</v>
@@ -1621,10 +1669,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D61" s="2">
         <v>60</v>
@@ -1635,10 +1683,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" s="2">
         <v>90</v>
@@ -1649,10 +1697,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D63" s="2">
         <v>100</v>
@@ -1663,10 +1711,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64" s="2">
         <v>150</v>
@@ -1677,10 +1725,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D65" s="2">
         <v>150</v>
@@ -1691,10 +1739,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D66" s="2">
         <v>10</v>
@@ -1705,10 +1753,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D67" s="2">
         <v>12</v>
@@ -1719,10 +1767,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D68" s="2">
         <v>20</v>
@@ -1733,10 +1781,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D69" s="2">
         <v>18</v>
@@ -1747,10 +1795,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D70" s="2">
         <v>10</v>
@@ -1761,10 +1809,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D71" s="2">
         <v>40</v>
@@ -1775,10 +1823,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D72" s="2">
         <v>35</v>
@@ -1789,10 +1837,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D73" s="2">
         <v>50</v>
@@ -1803,13 +1851,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,10 +1865,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D75" s="2">
         <v>30</v>
@@ -1831,10 +1879,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D76" s="2">
         <v>130</v>
@@ -1845,10 +1893,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D77" s="2">
         <v>190</v>
@@ -1859,10 +1907,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D78" s="2">
         <v>22</v>
@@ -1873,10 +1921,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D79" s="2">
         <v>50</v>
@@ -1887,10 +1935,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D80" s="2">
         <v>12</v>
@@ -1901,10 +1949,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D81" s="2">
         <v>60</v>
@@ -1915,10 +1963,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D82" s="2">
         <v>70</v>
@@ -1929,10 +1977,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D83" s="2">
         <v>105</v>
@@ -1943,10 +1991,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D84" s="2">
         <v>68</v>
@@ -1957,10 +2005,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D85" s="2">
         <v>40</v>
@@ -1971,10 +2019,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D86" s="2">
         <v>95</v>
@@ -1985,10 +2033,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D87" s="2">
         <v>75</v>
@@ -1999,10 +2047,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D88" s="2">
         <v>45</v>
@@ -2013,10 +2061,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D89" s="2">
         <v>70</v>
@@ -2027,10 +2075,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D90" s="2">
         <v>100</v>
@@ -2041,10 +2089,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D91" s="2">
         <v>80</v>
@@ -2055,10 +2103,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D92" s="2">
         <v>40</v>
@@ -2069,10 +2117,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D93" s="2">
         <v>30</v>
@@ -2083,10 +2131,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D94" s="2">
         <v>100</v>
@@ -2097,10 +2145,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D95" s="2">
         <v>80</v>
@@ -2111,10 +2159,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D96" s="2">
         <v>90</v>
@@ -2125,10 +2173,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D97" s="2">
         <v>55</v>
@@ -2139,10 +2187,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D98" s="2">
         <v>120</v>
@@ -2153,10 +2201,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D99" s="2">
         <v>152</v>
@@ -2167,10 +2215,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D100" s="2">
         <v>25</v>
@@ -2181,10 +2229,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D101" s="2">
         <v>15</v>
@@ -2195,10 +2243,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D102" s="2">
         <v>60</v>
@@ -2209,10 +2257,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D103" s="2">
         <v>9</v>
@@ -2223,10 +2271,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D104" s="2">
         <v>70</v>
@@ -2237,13 +2285,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D105" s="2">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2251,13 +2299,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D106" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2265,13 +2313,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D107" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,13 +2327,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D108" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2293,13 +2341,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D109" s="2">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,13 +2355,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D110" s="2">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2321,13 +2369,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D111" s="2">
-        <v>150</v>
+        <v>46</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2335,13 +2383,97 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D112" s="2">
-        <v>36</v>
+      <c r="B115" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
